--- a/client/public/asserts/out_data_list.xlsx
+++ b/client/public/asserts/out_data_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foxconn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cdpweb\client\public\asserts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>車牌55</t>
+    <t>車牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +465,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
